--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12566,158 +12566,158 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>19</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>19</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>19</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,81 +14409,81 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>21</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>screen</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>9</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>screen</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12566,158 +12566,158 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>19</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G269" t="b">
@@ -14433,57 +14433,57 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
